--- a/data/MilEditorials.xlsx
+++ b/data/MilEditorials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Semester 2/PS904 - American Politics/ResearchPaper/904 Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80747E6C-E9D5-8544-9880-67105A5FBEBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1915113F-4285-AE4D-94B2-809C01E870F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="520" windowWidth="25600" windowHeight="14580" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
+    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
   </bookViews>
   <sheets>
     <sheet name="MilEditorials" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="1137">
   <si>
     <t>Service</t>
   </si>
@@ -3916,9 +3916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DC456-8F02-9C4D-BCC7-A5EE43EC04A5}">
   <dimension ref="A1:AK392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K301" sqref="K1:K1048576"/>
+      <selection pane="topRight" activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8008,7 +8008,9 @@
         <v>1</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="H42" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="18" t="s">
         <v>1089</v>
       </c>
@@ -12044,7 +12046,7 @@
         <v>444</v>
       </c>
       <c r="K83" s="24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L83" s="23" t="s">
         <v>703</v>
@@ -27134,7 +27136,7 @@
         <v>11</v>
       </c>
       <c r="H244" s="16" t="s">
-        <v>16</v>
+        <v>1031</v>
       </c>
       <c r="I244" s="9" t="s">
         <v>124</v>
@@ -28452,7 +28454,7 @@
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="16" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I258" s="9" t="s">
         <v>227</v>
@@ -29934,7 +29936,7 @@
         <v>11</v>
       </c>
       <c r="H274" s="16" t="s">
-        <v>16</v>
+        <v>1031</v>
       </c>
       <c r="I274" s="9" t="s">
         <v>136</v>

--- a/data/MilEditorials.xlsx
+++ b/data/MilEditorials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Semester 2/PS904 - American Politics/ResearchPaper/904 Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1915113F-4285-AE4D-94B2-809C01E870F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE02E44A-5D77-D14B-A539-07A016DE084A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
   </bookViews>
   <sheets>
     <sheet name="MilEditorials" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1139">
   <si>
     <t>Service</t>
   </si>
@@ -3128,9 +3128,6 @@
     <t>Mixed</t>
   </si>
   <si>
-    <t>aff_polar</t>
-  </si>
-  <si>
     <t>Enemark, W.A.</t>
   </si>
   <si>
@@ -3441,6 +3438,15 @@
   </si>
   <si>
     <t xml:space="preserve">has promoted democracy - and US interests.  </t>
+  </si>
+  <si>
+    <t>dem_diff_aff</t>
+  </si>
+  <si>
+    <t>rep-diff_aff</t>
+  </si>
+  <si>
+    <t>aff_polar_alt</t>
   </si>
 </sst>
 </file>
@@ -3914,11 +3920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DC456-8F02-9C4D-BCC7-A5EE43EC04A5}">
-  <dimension ref="A1:AK392"/>
+  <dimension ref="A1:AM392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J189" sqref="J189"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM329" sqref="AM329:AM391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3958,7 +3964,7 @@
     <col min="37" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>652</v>
       </c>
@@ -4068,10 +4074,16 @@
         <v>650</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>1032</v>
+        <v>1136</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>1138</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>495</v>
       </c>
@@ -4165,10 +4177,16 @@
         <v>0.38995780000000002</v>
       </c>
       <c r="AK2" s="16">
+        <v>20.151299999999999</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>24.253530000000001</v>
+      </c>
+      <c r="AM2" s="16">
         <v>39.9</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
@@ -4262,12 +4280,18 @@
         <v>0.38995780000000002</v>
       </c>
       <c r="AK3" s="16">
+        <v>20.151299999999999</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>24.253530000000001</v>
+      </c>
+      <c r="AM3" s="16">
         <v>39.9</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
@@ -4287,10 +4311,10 @@
         <v>16</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K4" s="15">
         <v>10</v>
@@ -4303,7 +4327,7 @@
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="R4" s="16">
         <v>54</v>
@@ -4363,12 +4387,18 @@
         <v>0.38995780000000002</v>
       </c>
       <c r="AK4" s="16">
+        <v>20.151299999999999</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>24.253530000000001</v>
+      </c>
+      <c r="AM4" s="16">
         <v>39.9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
@@ -4388,10 +4418,10 @@
         <v>16</v>
       </c>
       <c r="I5" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="K5" s="15">
         <v>10</v>
@@ -4460,12 +4490,18 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK5" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
@@ -4487,10 +4523,10 @@
         <v>16</v>
       </c>
       <c r="I6" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="K6" s="15">
         <v>8</v>
@@ -4559,10 +4595,16 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK6" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM6" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" ht="104" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>379</v>
       </c>
@@ -4656,10 +4698,16 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK7" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>379</v>
       </c>
@@ -4753,10 +4801,16 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK8" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>457</v>
       </c>
@@ -4778,10 +4832,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="K9" s="15">
         <v>9</v>
@@ -4850,12 +4904,18 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK9" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B10" s="16">
         <v>1</v>
@@ -4877,10 +4937,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K10" s="15">
         <v>10</v>
@@ -4949,12 +5009,18 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK10" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL10" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM10" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B11" s="16">
         <v>1</v>
@@ -4976,10 +5042,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>1045</v>
       </c>
       <c r="K11" s="15">
         <v>8</v>
@@ -5048,12 +5114,18 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK11" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
@@ -5075,10 +5147,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K12" s="15">
         <v>9</v>
@@ -5147,10 +5219,16 @@
         <v>0.40905340000000001</v>
       </c>
       <c r="AK12" s="16">
-        <v>48.8</v>
+        <v>26.214279999999999</v>
+      </c>
+      <c r="AL12" s="16">
+        <v>24.962900000000001</v>
+      </c>
+      <c r="AM12" s="16">
+        <v>48.81</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>485</v>
       </c>
@@ -5244,12 +5322,18 @@
         <v>0.4085645</v>
       </c>
       <c r="AK13" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL13" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM13" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
@@ -5271,10 +5355,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K14" s="15">
         <v>7</v>
@@ -5343,10 +5427,16 @@
         <v>0.4085645</v>
       </c>
       <c r="AK14" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL14" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM14" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="83" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" ht="83" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>384</v>
       </c>
@@ -5440,10 +5530,16 @@
         <v>0.4085645</v>
       </c>
       <c r="AK15" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM15" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>387</v>
       </c>
@@ -5541,12 +5637,18 @@
         <v>0.4085645</v>
       </c>
       <c r="AK16" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL16" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM16" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B17" s="16">
         <v>1</v>
@@ -5568,10 +5670,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>1059</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>1060</v>
       </c>
       <c r="K17" s="15">
         <v>6</v>
@@ -5640,12 +5742,18 @@
         <v>0.4085645</v>
       </c>
       <c r="AK17" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL17" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM17" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B18" s="16">
         <v>1</v>
@@ -5667,10 +5775,10 @@
         <v>16</v>
       </c>
       <c r="I18" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>1057</v>
       </c>
       <c r="K18" s="15">
         <v>9</v>
@@ -5739,10 +5847,16 @@
         <v>0.4085645</v>
       </c>
       <c r="AK18" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL18" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM18" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>390</v>
       </c>
@@ -5836,12 +5950,18 @@
         <v>0.4085645</v>
       </c>
       <c r="AK19" s="16">
-        <v>55.64</v>
+        <v>25.876270000000002</v>
+      </c>
+      <c r="AL19" s="16">
+        <v>31.70853</v>
+      </c>
+      <c r="AM19" s="16">
+        <v>55.634999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B20" s="16">
         <v>0</v>
@@ -5863,10 +5983,10 @@
         <v>16</v>
       </c>
       <c r="I20" s="18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="K20" s="19">
         <v>6</v>
@@ -5935,12 +6055,18 @@
         <v>0.40657070000000001</v>
       </c>
       <c r="AK20" s="16">
-        <v>54.18</v>
+        <v>26.152509999999999</v>
+      </c>
+      <c r="AL20" s="16">
+        <v>30.349399999999999</v>
+      </c>
+      <c r="AM20" s="16">
+        <v>54.179000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
@@ -5960,10 +6086,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>1072</v>
       </c>
       <c r="K21" s="19">
         <v>6</v>
@@ -6032,12 +6158,18 @@
         <v>0.40657070000000001</v>
       </c>
       <c r="AK21" s="16">
-        <v>54.18</v>
+        <v>26.152509999999999</v>
+      </c>
+      <c r="AL21" s="16">
+        <v>30.349399999999999</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>54.179000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
@@ -6057,10 +6189,10 @@
         <v>16</v>
       </c>
       <c r="I22" s="18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="K22" s="19">
         <v>10</v>
@@ -6129,12 +6261,18 @@
         <v>0.40657070000000001</v>
       </c>
       <c r="AK22" s="16">
-        <v>54.18</v>
+        <v>26.152509999999999</v>
+      </c>
+      <c r="AL22" s="16">
+        <v>30.349399999999999</v>
+      </c>
+      <c r="AM22" s="16">
+        <v>54.179000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B23" s="16">
         <v>1</v>
@@ -6156,10 +6294,10 @@
         <v>16</v>
       </c>
       <c r="I23" s="18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="K23" s="19">
         <v>9</v>
@@ -6228,12 +6366,18 @@
         <v>0.40657070000000001</v>
       </c>
       <c r="AK23" s="16">
-        <v>54.18</v>
+        <v>26.152509999999999</v>
+      </c>
+      <c r="AL23" s="16">
+        <v>30.349399999999999</v>
+      </c>
+      <c r="AM23" s="16">
+        <v>54.179000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B24" s="16">
         <v>1</v>
@@ -6255,10 +6399,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>1063</v>
       </c>
       <c r="K24" s="19">
         <v>10</v>
@@ -6327,10 +6471,16 @@
         <v>0.40657070000000001</v>
       </c>
       <c r="AK24" s="16">
-        <v>54.18</v>
+        <v>26.152509999999999</v>
+      </c>
+      <c r="AL24" s="16">
+        <v>30.349399999999999</v>
+      </c>
+      <c r="AM24" s="16">
+        <v>54.179000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>296</v>
       </c>
@@ -6424,10 +6574,16 @@
         <v>0.40657070000000001</v>
       </c>
       <c r="AK25" s="16">
-        <v>54.18</v>
+        <v>26.152509999999999</v>
+      </c>
+      <c r="AL25" s="16">
+        <v>30.349399999999999</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>54.179000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>384</v>
       </c>
@@ -6449,10 +6605,10 @@
         <v>16</v>
       </c>
       <c r="I26" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="K26" s="19">
         <v>9</v>
@@ -6521,12 +6677,18 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK26" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL26" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM26" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B27" s="16">
         <v>0</v>
@@ -6546,10 +6708,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K27" s="19">
         <v>5</v>
@@ -6618,10 +6780,16 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK27" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL27" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM27" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>384</v>
       </c>
@@ -6715,10 +6883,16 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK28" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL28" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM28" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>296</v>
       </c>
@@ -6812,12 +6986,18 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK29" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL29" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
@@ -6837,10 +7017,10 @@
         <v>16</v>
       </c>
       <c r="I30" s="18" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="K30" s="15">
         <v>10</v>
@@ -6909,10 +7089,16 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK30" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL30" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM30" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>395</v>
       </c>
@@ -7006,10 +7192,16 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK31" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL31" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM31" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>266</v>
       </c>
@@ -7103,12 +7295,18 @@
         <v>0.37797540000000002</v>
       </c>
       <c r="AK32" s="16">
-        <v>52.45</v>
+        <v>25.33944</v>
+      </c>
+      <c r="AL32" s="16">
+        <v>29.581620000000001</v>
+      </c>
+      <c r="AM32" s="16">
+        <v>52.459000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
@@ -7130,10 +7328,10 @@
         <v>16</v>
       </c>
       <c r="I33" s="18" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>1112</v>
       </c>
       <c r="K33" s="15">
         <v>8</v>
@@ -7205,12 +7403,18 @@
         <v>0.36650379999999999</v>
       </c>
       <c r="AK33" s="16">
-        <v>57.69</v>
+        <v>29.618189999999998</v>
+      </c>
+      <c r="AL33" s="16">
+        <v>30.597570000000001</v>
+      </c>
+      <c r="AM33" s="16">
+        <v>57.697000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B34" s="16">
         <v>1</v>
@@ -7232,10 +7436,10 @@
         <v>16</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K34" s="15">
         <v>4</v>
@@ -7304,10 +7508,16 @@
         <v>0.36650379999999999</v>
       </c>
       <c r="AK34" s="16">
-        <v>57.69</v>
+        <v>29.618189999999998</v>
+      </c>
+      <c r="AL34" s="16">
+        <v>30.597570000000001</v>
+      </c>
+      <c r="AM34" s="16">
+        <v>57.697000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>266</v>
       </c>
@@ -7401,10 +7611,16 @@
         <v>0.36650379999999999</v>
       </c>
       <c r="AK35" s="16">
-        <v>57.69</v>
+        <v>29.618189999999998</v>
+      </c>
+      <c r="AL35" s="16">
+        <v>30.597570000000001</v>
+      </c>
+      <c r="AM35" s="16">
+        <v>57.697000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>384</v>
       </c>
@@ -7426,10 +7642,10 @@
         <v>16</v>
       </c>
       <c r="I36" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>1105</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>1106</v>
       </c>
       <c r="K36" s="15">
         <v>9</v>
@@ -7498,12 +7714,18 @@
         <v>0.36650379999999999</v>
       </c>
       <c r="AK36" s="16">
-        <v>57.69</v>
+        <v>29.618189999999998</v>
+      </c>
+      <c r="AL36" s="16">
+        <v>30.597570000000001</v>
+      </c>
+      <c r="AM36" s="16">
+        <v>57.697000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B37" s="16">
         <v>1</v>
@@ -7523,10 +7745,10 @@
         <v>16</v>
       </c>
       <c r="I37" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="K37" s="15">
         <v>10</v>
@@ -7595,10 +7817,16 @@
         <v>0.36650379999999999</v>
       </c>
       <c r="AK37" s="16">
-        <v>57.69</v>
+        <v>29.618189999999998</v>
+      </c>
+      <c r="AL37" s="16">
+        <v>30.597570000000001</v>
+      </c>
+      <c r="AM37" s="16">
+        <v>57.697000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
         <v>266</v>
       </c>
@@ -7692,12 +7920,18 @@
         <v>0.36650379999999999</v>
       </c>
       <c r="AK38" s="16">
-        <v>57.69</v>
+        <v>29.618189999999998</v>
+      </c>
+      <c r="AL38" s="16">
+        <v>30.597570000000001</v>
+      </c>
+      <c r="AM38" s="16">
+        <v>57.697000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B39" s="16">
         <v>1</v>
@@ -7719,10 +7953,10 @@
         <v>16</v>
       </c>
       <c r="I39" s="18" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="K39" s="15">
         <v>10</v>
@@ -7791,12 +8025,18 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK39" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL39" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM39" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B40" s="16">
         <v>1</v>
@@ -7816,10 +8056,10 @@
         <v>16</v>
       </c>
       <c r="I40" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>1096</v>
       </c>
       <c r="K40" s="15">
         <v>5</v>
@@ -7888,12 +8128,18 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK40" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL40" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM40" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B41" s="16">
         <v>1</v>
@@ -7913,10 +8159,10 @@
         <v>16</v>
       </c>
       <c r="I41" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="K41" s="15">
         <v>6</v>
@@ -7985,12 +8231,18 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK41" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL41" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM41" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B42" s="16">
         <v>1</v>
@@ -8012,10 +8264,10 @@
         <v>16</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K42" s="15">
         <v>6</v>
@@ -8084,12 +8336,18 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK42" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL42" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM42" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B43" s="16">
         <v>1</v>
@@ -8111,10 +8369,10 @@
         <v>16</v>
       </c>
       <c r="I43" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="K43" s="15">
         <v>6</v>
@@ -8183,10 +8441,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK43" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL43" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM43" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
         <v>490</v>
       </c>
@@ -8280,10 +8544,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK44" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL44" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM44" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>253</v>
       </c>
@@ -8377,12 +8647,18 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK45" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL45" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM45" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B46" s="16">
         <v>1</v>
@@ -8404,10 +8680,10 @@
         <v>16</v>
       </c>
       <c r="I46" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="K46" s="15">
         <v>8</v>
@@ -8476,10 +8752,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK46" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL46" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM46" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>253</v>
       </c>
@@ -8573,12 +8855,18 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK47" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL47" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM47" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A48" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B48" s="16">
         <v>1</v>
@@ -8598,10 +8886,10 @@
         <v>16</v>
       </c>
       <c r="I48" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="K48" s="15">
         <v>6</v>
@@ -8670,10 +8958,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK48" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL48" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM48" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>403</v>
       </c>
@@ -8767,10 +9061,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK49" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL49" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM49" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>384</v>
       </c>
@@ -8794,10 +9094,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>1120</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>1121</v>
       </c>
       <c r="K50" s="15">
         <v>9</v>
@@ -8866,10 +9166,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK50" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL50" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM50" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>406</v>
       </c>
@@ -8963,10 +9269,16 @@
         <v>0.36585190000000001</v>
       </c>
       <c r="AK51" s="16">
-        <v>44.87</v>
+        <v>20.48573</v>
+      </c>
+      <c r="AL51" s="16">
+        <v>26.728190000000001</v>
+      </c>
+      <c r="AM51" s="16">
+        <v>44.877899999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>296</v>
       </c>
@@ -9060,10 +9372,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK52" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL52" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM52" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>253</v>
       </c>
@@ -9157,12 +9475,18 @@
         <v>0.3773398</v>
       </c>
       <c r="AK53" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL53" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM53" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B54" s="16">
         <v>1</v>
@@ -9182,10 +9506,10 @@
         <v>16</v>
       </c>
       <c r="I54" s="18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>1124</v>
       </c>
       <c r="K54" s="15">
         <v>6</v>
@@ -9257,12 +9581,18 @@
         <v>0.3773398</v>
       </c>
       <c r="AK54" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL54" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM54" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B55" s="16">
         <v>1</v>
@@ -9284,10 +9614,10 @@
         <v>16</v>
       </c>
       <c r="I55" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>1126</v>
       </c>
       <c r="K55" s="15">
         <v>8</v>
@@ -9353,8 +9683,17 @@
         <v>-0.26819999999999999</v>
       </c>
       <c r="AJ55" s="15"/>
+      <c r="AK55" s="16">
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL55" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM55" s="16">
+        <v>53.022500000000001</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>421</v>
       </c>
@@ -9448,10 +9787,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK56" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL56" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM56" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A57" s="15" t="s">
         <v>253</v>
       </c>
@@ -9550,10 +9895,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK57" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL57" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM57" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A58" s="15" t="s">
         <v>58</v>
       </c>
@@ -9575,10 +9926,10 @@
         <v>16</v>
       </c>
       <c r="I58" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="K58" s="15">
         <v>6</v>
@@ -9594,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R58" s="16">
         <v>64</v>
@@ -9654,10 +10005,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK58" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL58" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM58" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
         <v>234</v>
       </c>
@@ -9751,10 +10108,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK59" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL59" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM59" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
         <v>412</v>
       </c>
@@ -9850,10 +10213,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK60" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL60" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM60" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A61" s="15" t="s">
         <v>253</v>
       </c>
@@ -9947,10 +10316,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK61" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL61" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM61" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A62" s="15" t="s">
         <v>415</v>
       </c>
@@ -10044,10 +10419,16 @@
         <v>0.3773398</v>
       </c>
       <c r="AK62" s="16">
-        <v>53.02</v>
+        <v>23.474769999999999</v>
+      </c>
+      <c r="AL62" s="16">
+        <v>31.050080000000001</v>
+      </c>
+      <c r="AM62" s="16">
+        <v>53.022500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A63" s="15" t="s">
         <v>435</v>
       </c>
@@ -10141,10 +10522,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK63" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL63" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM63" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A64" s="15" t="s">
         <v>253</v>
       </c>
@@ -10243,10 +10630,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK64" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL64" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM64" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="15" t="s">
         <v>266</v>
       </c>
@@ -10340,10 +10733,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK65" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL65" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM65" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A66" s="15" t="s">
         <v>559</v>
       </c>
@@ -10437,10 +10836,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK66" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL66" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM66" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:37" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:39" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
         <v>423</v>
       </c>
@@ -10536,10 +10941,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK67" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL67" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM67" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:37" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:39" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
         <v>253</v>
       </c>
@@ -10635,10 +11046,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK68" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL68" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM68" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:37" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:39" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
         <v>253</v>
       </c>
@@ -10738,10 +11155,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK69" s="16">
-        <v>56.28</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL69" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM69" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A70" s="15" t="s">
         <v>421</v>
       </c>
@@ -10835,10 +11258,16 @@
         <v>0.35919459999999998</v>
       </c>
       <c r="AK70" s="16">
-        <v>60.33</v>
+        <v>32.587490000000003</v>
+      </c>
+      <c r="AL70" s="16">
+        <v>24.494039999999998</v>
+      </c>
+      <c r="AM70" s="16">
+        <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A71" s="15" t="s">
         <v>437</v>
       </c>
@@ -10932,10 +11361,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK71" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL71" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM71" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:37" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:39" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
         <v>384</v>
       </c>
@@ -11035,10 +11470,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK72" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL72" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM72" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A73" s="15" t="s">
         <v>253</v>
       </c>
@@ -11132,10 +11573,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK73" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL73" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM73" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A74" s="15" t="s">
         <v>445</v>
       </c>
@@ -11229,10 +11676,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK74" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL74" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM74" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A75" s="15" t="s">
         <v>428</v>
       </c>
@@ -11326,10 +11779,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK75" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL75" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM75" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A76" s="15" t="s">
         <v>296</v>
       </c>
@@ -11423,10 +11882,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK76" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL76" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM76" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A77" s="15" t="s">
         <v>296</v>
       </c>
@@ -11520,10 +11985,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK77" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL77" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM77" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A78" s="15" t="s">
         <v>452</v>
       </c>
@@ -11617,10 +12088,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK78" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL78" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM78" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A79" s="15" t="s">
         <v>253</v>
       </c>
@@ -11714,10 +12191,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK79" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL79" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM79" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A80" s="15" t="s">
         <v>152</v>
       </c>
@@ -11811,10 +12294,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK80" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL80" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM80" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A81" s="15" t="s">
         <v>478</v>
       </c>
@@ -11913,10 +12402,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK81" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL81" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM81" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A82" s="15" t="s">
         <v>466</v>
       </c>
@@ -12015,10 +12510,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK82" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL82" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM82" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A83" s="15" t="s">
         <v>442</v>
       </c>
@@ -12112,10 +12613,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK83" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL83" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM83" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A84" s="15" t="s">
         <v>466</v>
       </c>
@@ -12214,10 +12721,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK84" s="16">
-        <v>60.33</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL84" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM84" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
         <v>287</v>
       </c>
@@ -12311,10 +12824,16 @@
         <v>0.3389491</v>
       </c>
       <c r="AK85" s="16">
-        <v>56.69</v>
+        <v>29.27298</v>
+      </c>
+      <c r="AL85" s="16">
+        <v>31.70449</v>
+      </c>
+      <c r="AM85" s="16">
+        <v>60.332000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
         <v>466</v>
       </c>
@@ -12408,10 +12927,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK86" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL86" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM86" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
         <v>466</v>
       </c>
@@ -12505,10 +13030,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK87" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL87" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM87" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
         <v>253</v>
       </c>
@@ -12602,10 +13133,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK88" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL88" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM88" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:37" s="22" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:39" s="22" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A89" s="15" t="s">
         <v>248</v>
       </c>
@@ -12701,10 +13238,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK89" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL89" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM89" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:37" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:39" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>253</v>
       </c>
@@ -12800,10 +13343,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK90" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL90" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM90" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:37" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:39" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A91" s="15" t="s">
         <v>466</v>
       </c>
@@ -12899,10 +13448,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK91" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL91" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM91" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A92" s="15" t="s">
         <v>277</v>
       </c>
@@ -12998,10 +13553,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK92" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL92" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM92" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A93" s="15" t="s">
         <v>466</v>
       </c>
@@ -13095,10 +13656,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK93" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL93" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM93" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A94" s="15" t="s">
         <v>253</v>
       </c>
@@ -13192,10 +13759,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK94" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL94" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM94" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A95" s="15" t="s">
         <v>565</v>
       </c>
@@ -13289,10 +13862,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK95" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL95" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM95" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A96" s="15" t="s">
         <v>253</v>
       </c>
@@ -13386,10 +13965,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK96" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL96" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM96" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A97" s="15" t="s">
         <v>457</v>
       </c>
@@ -13483,10 +14068,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK97" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL97" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM97" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A98" s="15" t="s">
         <v>448</v>
       </c>
@@ -13580,10 +14171,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK98" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL98" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM98" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
         <v>239</v>
       </c>
@@ -13672,10 +14269,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK99" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL99" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM99" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:37" s="20" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:39" s="20" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A100" s="19" t="s">
         <v>682</v>
       </c>
@@ -13774,10 +14377,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK100" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL100" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM100" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
         <v>158</v>
       </c>
@@ -13866,10 +14475,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK101" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL101" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM101" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A102" s="15" t="s">
         <v>253</v>
       </c>
@@ -13960,10 +14575,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK102" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL102" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM102" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
         <v>243</v>
       </c>
@@ -14052,10 +14673,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK103" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL103" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM103" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
         <v>296</v>
       </c>
@@ -14144,10 +14771,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK104" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL104" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM104" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
         <v>245</v>
       </c>
@@ -14236,10 +14869,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK105" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL105" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM105" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
         <v>245</v>
       </c>
@@ -14328,10 +14967,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK106" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL106" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM106" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
         <v>248</v>
       </c>
@@ -14420,10 +15065,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK107" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL107" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM107" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
         <v>250</v>
       </c>
@@ -14512,10 +15163,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK108" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL108" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM108" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
         <v>253</v>
       </c>
@@ -14610,10 +15267,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK109" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL109" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM109" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
         <v>245</v>
       </c>
@@ -14702,10 +15365,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK110" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL110" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM110" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
         <v>253</v>
       </c>
@@ -14794,10 +15463,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK111" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL111" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM111" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
         <v>13</v>
       </c>
@@ -14892,10 +15567,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK112" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL112" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM112" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
         <v>89</v>
       </c>
@@ -14984,10 +15665,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK113" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL113" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM113" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
         <v>17</v>
       </c>
@@ -15076,10 +15763,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK114" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL114" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM114" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
         <v>296</v>
       </c>
@@ -15168,10 +15861,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK115" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL115" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM115" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
         <v>256</v>
       </c>
@@ -15260,10 +15959,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK116" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL116" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM116" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A117" s="16" t="s">
         <v>17</v>
       </c>
@@ -15352,10 +16057,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK117" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL117" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM117" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:39" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="s">
         <v>253</v>
       </c>
@@ -15444,10 +16155,16 @@
         <v>0.36243809999999999</v>
       </c>
       <c r="AK118" s="16">
-        <v>56.69</v>
+        <v>23.262889999999999</v>
+      </c>
+      <c r="AL118" s="16">
+        <v>34.055689999999998</v>
+      </c>
+      <c r="AM118" s="16">
+        <v>56.694339999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="s">
         <v>259</v>
       </c>
@@ -15545,10 +16262,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK119" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL119" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM119" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A120" s="16" t="s">
         <v>296</v>
       </c>
@@ -15637,10 +16360,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK120" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL120" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM120" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A121" s="16" t="s">
         <v>253</v>
       </c>
@@ -15729,10 +16458,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK121" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL121" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM121" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A122" s="16" t="s">
         <v>245</v>
       </c>
@@ -15821,10 +16556,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK122" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL122" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM122" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A123" s="16" t="s">
         <v>17</v>
       </c>
@@ -15913,10 +16654,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK123" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL123" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM123" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
         <v>263</v>
       </c>
@@ -16005,10 +16752,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK124" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL124" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM124" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
         <v>296</v>
       </c>
@@ -16097,10 +16850,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK125" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL125" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM125" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="16" t="s">
         <v>296</v>
       </c>
@@ -16189,10 +16948,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK126" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL126" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM126" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
         <v>17</v>
       </c>
@@ -16281,10 +17046,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK127" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL127" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM127" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:37" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:39" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A128" s="20" t="s">
         <v>701</v>
       </c>
@@ -16376,10 +17147,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK128" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL128" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM128" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A129" s="16" t="s">
         <v>152</v>
       </c>
@@ -16468,10 +17245,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK129" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL129" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM129" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A130" s="16" t="s">
         <v>236</v>
       </c>
@@ -16566,10 +17349,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK130" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL130" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM130" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="s">
         <v>253</v>
       </c>
@@ -16658,10 +17447,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK131" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL131" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM131" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A132" s="16" t="s">
         <v>266</v>
       </c>
@@ -16750,10 +17545,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK132" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL132" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM132" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A133" s="16" t="s">
         <v>268</v>
       </c>
@@ -16842,10 +17643,16 @@
         <v>0.36162369999999999</v>
       </c>
       <c r="AK133" s="16">
-        <v>59.618000000000002</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL133" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM133" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="s">
         <v>268</v>
       </c>
@@ -16934,10 +17741,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK134" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL134" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM134" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
         <v>232</v>
       </c>
@@ -17026,10 +17839,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK135" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL135" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM135" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="130" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:39" ht="130" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
         <v>271</v>
       </c>
@@ -17121,10 +17940,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK136" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL136" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM136" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A137" s="16" t="s">
         <v>273</v>
       </c>
@@ -17213,10 +18038,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK137" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL137" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM137" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A138" s="16" t="s">
         <v>5</v>
       </c>
@@ -17305,10 +18136,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK138" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL138" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM138" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A139" s="16" t="s">
         <v>5</v>
       </c>
@@ -17397,10 +18234,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK139" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL139" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM139" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A140" s="16" t="s">
         <v>296</v>
       </c>
@@ -17489,10 +18332,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK140" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL140" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM140" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="16" t="s">
         <v>277</v>
       </c>
@@ -17581,10 +18430,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK141" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL141" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM141" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A142" s="16" t="s">
         <v>280</v>
       </c>
@@ -17673,10 +18528,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK142" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL142" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM142" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A143" s="16" t="s">
         <v>234</v>
       </c>
@@ -17765,10 +18626,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK143" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL143" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM143" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="s">
         <v>296</v>
       </c>
@@ -17857,10 +18724,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK144" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL144" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM144" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A145" s="16" t="s">
         <v>287</v>
       </c>
@@ -17949,10 +18822,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK145" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL145" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM145" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A146" s="16" t="s">
         <v>282</v>
       </c>
@@ -18041,10 +18920,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK146" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL146" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM146" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="s">
         <v>285</v>
       </c>
@@ -18133,10 +19018,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK147" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL147" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM147" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="s">
         <v>296</v>
       </c>
@@ -18225,10 +19116,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK148" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL148" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM148" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A149" s="16" t="s">
         <v>289</v>
       </c>
@@ -18317,10 +19214,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK149" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL149" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM149" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A150" s="16" t="s">
         <v>291</v>
       </c>
@@ -18409,10 +19312,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK150" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL150" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM150" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A151" s="16" t="s">
         <v>83</v>
       </c>
@@ -18501,10 +19410,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK151" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL151" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM151" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:37" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:39" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A152" s="20" t="s">
         <v>325</v>
       </c>
@@ -18601,10 +19516,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK152" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL152" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM152" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A153" s="16" t="s">
         <v>17</v>
       </c>
@@ -18699,10 +19620,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK153" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL153" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM153" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A154" s="16" t="s">
         <v>294</v>
       </c>
@@ -18797,10 +19724,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK154" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL154" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM154" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A155" s="16" t="s">
         <v>296</v>
       </c>
@@ -18889,10 +19822,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK155" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL155" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM155" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:37" s="20" customFormat="1" ht="143" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:39" s="20" customFormat="1" ht="143" x14ac:dyDescent="0.15">
       <c r="A156" s="20" t="s">
         <v>325</v>
       </c>
@@ -18989,10 +19928,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK156" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL156" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM156" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
         <v>298</v>
       </c>
@@ -19087,10 +20032,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK157" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL157" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM157" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="130" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:39" ht="130" x14ac:dyDescent="0.15">
       <c r="A158" s="16" t="s">
         <v>301</v>
       </c>
@@ -19179,10 +20130,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK158" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL158" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM158" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A159" s="16" t="s">
         <v>298</v>
       </c>
@@ -19277,10 +20234,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK159" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL159" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM159" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A160" s="16" t="s">
         <v>540</v>
       </c>
@@ -19369,10 +20332,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK160" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL160" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM160" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A161" s="16" t="s">
         <v>296</v>
       </c>
@@ -19461,10 +20430,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK161" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL161" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM161" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A162" s="16" t="s">
         <v>303</v>
       </c>
@@ -19553,10 +20528,16 @@
         <v>0.32106069999999998</v>
       </c>
       <c r="AK162" s="16">
-        <v>63.128999999999998</v>
+        <v>29.30659</v>
+      </c>
+      <c r="AL162" s="16">
+        <v>32.385890000000003</v>
+      </c>
+      <c r="AM162" s="16">
+        <v>59.625019999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A163" s="16" t="s">
         <v>17</v>
       </c>
@@ -19645,10 +20626,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK163" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL163" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM163" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A164" s="16" t="s">
         <v>306</v>
       </c>
@@ -19737,10 +20724,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK164" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL164" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM164" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A165" s="16" t="s">
         <v>253</v>
       </c>
@@ -19829,10 +20822,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK165" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL165" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM165" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A166" s="16" t="s">
         <v>17</v>
       </c>
@@ -19927,10 +20926,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK166" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL166" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM166" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A167" s="16" t="s">
         <v>17</v>
       </c>
@@ -20025,10 +21030,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK167" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL167" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM167" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A168" s="16" t="s">
         <v>309</v>
       </c>
@@ -20048,7 +21059,7 @@
         <v>16</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>770</v>
@@ -20117,10 +21128,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK168" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL168" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM168" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A169" s="16" t="s">
         <v>500</v>
       </c>
@@ -20215,10 +21232,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK169" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL169" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM169" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A170" s="20" t="s">
         <v>310</v>
       </c>
@@ -20313,10 +21336,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK170" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL170" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM170" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:37" ht="156" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:39" ht="156" x14ac:dyDescent="0.15">
       <c r="A171" s="20" t="s">
         <v>312</v>
       </c>
@@ -20411,10 +21440,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK171" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL171" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM171" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:37" ht="151" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:39" ht="151" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="16" t="s">
         <v>287</v>
       </c>
@@ -20503,10 +21538,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK172" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL172" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM172" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="173" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A173" s="16" t="s">
         <v>537</v>
       </c>
@@ -20595,10 +21636,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK173" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL173" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM173" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A174" s="16" t="s">
         <v>315</v>
       </c>
@@ -20696,10 +21743,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK174" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL174" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM174" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="175" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A175" s="16" t="s">
         <v>310</v>
       </c>
@@ -20794,10 +21847,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK175" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL175" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM175" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A176" s="16" t="s">
         <v>17</v>
       </c>
@@ -20886,10 +21945,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK176" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL176" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM176" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A177" s="16" t="s">
         <v>320</v>
       </c>
@@ -20978,10 +22043,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK177" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL177" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM177" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:37" ht="169" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:39" ht="169" x14ac:dyDescent="0.15">
       <c r="A178" s="16" t="s">
         <v>277</v>
       </c>
@@ -21070,10 +22141,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK178" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL178" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM178" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="179" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A179" s="16" t="s">
         <v>323</v>
       </c>
@@ -21162,10 +22239,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK179" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL179" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM179" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A180" s="16" t="s">
         <v>325</v>
       </c>
@@ -21257,10 +22340,16 @@
         <v>0.30615100000000001</v>
       </c>
       <c r="AK180" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL180" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM180" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A181" s="16" t="s">
         <v>17</v>
       </c>
@@ -21349,10 +22438,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK181" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL181" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM181" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A182" s="16" t="s">
         <v>310</v>
       </c>
@@ -21441,10 +22536,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK182" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL182" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM182" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="183" spans="1:37" ht="130" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:39" ht="130" x14ac:dyDescent="0.15">
       <c r="A183" s="16" t="s">
         <v>268</v>
       </c>
@@ -21539,10 +22640,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK183" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL183" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM183" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="184" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A184" s="16" t="s">
         <v>26</v>
       </c>
@@ -21637,10 +22744,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK184" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL184" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM184" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:37" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:39" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A185" s="20" t="s">
         <v>466</v>
       </c>
@@ -21732,10 +22845,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK185" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL185" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM185" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="186" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A186" s="16" t="s">
         <v>24</v>
       </c>
@@ -21824,10 +22943,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK186" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL186" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM186" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A187" s="16" t="s">
         <v>525</v>
       </c>
@@ -21916,10 +23041,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK187" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL187" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM187" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A188" s="16" t="s">
         <v>273</v>
       </c>
@@ -22008,10 +23139,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK188" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL188" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM188" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="189" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A189" s="16" t="s">
         <v>103</v>
       </c>
@@ -22103,10 +23240,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK189" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL189" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM189" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:37" ht="169" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:39" ht="169" x14ac:dyDescent="0.15">
       <c r="A190" s="16" t="s">
         <v>22</v>
       </c>
@@ -22195,10 +23338,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK190" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL190" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM190" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="191" spans="1:37" s="20" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:39" s="20" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="A191" s="20" t="s">
         <v>696</v>
       </c>
@@ -22290,10 +23439,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK191" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL191" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM191" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A192" s="16" t="s">
         <v>599</v>
       </c>
@@ -22382,10 +23537,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK192" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL192" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM192" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="193" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A193" s="16" t="s">
         <v>105</v>
       </c>
@@ -22474,10 +23635,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK193" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL193" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM193" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A194" s="16" t="s">
         <v>19</v>
       </c>
@@ -22566,10 +23733,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK194" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL194" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM194" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A195" s="16" t="s">
         <v>296</v>
       </c>
@@ -22658,10 +23831,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK195" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL195" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM195" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A196" s="16" t="s">
         <v>17</v>
       </c>
@@ -22750,10 +23929,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK196" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL196" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM196" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A197" s="16" t="s">
         <v>351</v>
       </c>
@@ -22842,10 +24027,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK197" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL197" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM197" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A198" s="16" t="s">
         <v>13</v>
       </c>
@@ -22934,10 +24125,16 @@
         <v>0.29982229999999999</v>
       </c>
       <c r="AK198" s="16">
-        <v>66.64</v>
+        <v>32.220309999999998</v>
+      </c>
+      <c r="AL198" s="16">
+        <v>35.831850000000003</v>
+      </c>
+      <c r="AM198" s="16">
+        <v>66.644000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A199" s="16" t="s">
         <v>65</v>
       </c>
@@ -23026,10 +24223,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK199" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL199" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM199" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A200" s="16" t="s">
         <v>65</v>
       </c>
@@ -23118,10 +24321,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK200" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL200" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM200" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A201" s="16" t="s">
         <v>346</v>
       </c>
@@ -23210,10 +24419,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK201" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL201" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM201" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A202" s="16" t="s">
         <v>5</v>
       </c>
@@ -23302,10 +24517,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK202" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL202" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM202" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A203" s="16" t="s">
         <v>5</v>
       </c>
@@ -23394,10 +24615,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK203" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL203" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM203" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A204" s="16" t="s">
         <v>9</v>
       </c>
@@ -23486,10 +24713,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK204" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL204" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM204" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A205" s="16" t="s">
         <v>532</v>
       </c>
@@ -23578,10 +24811,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK205" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL205" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM205" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A206" s="16" t="s">
         <v>109</v>
       </c>
@@ -23672,10 +24911,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK206" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL206" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM206" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A207" s="16" t="s">
         <v>65</v>
       </c>
@@ -23764,10 +25009,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK207" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL207" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM207" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A208" s="16" t="s">
         <v>522</v>
       </c>
@@ -23856,10 +25107,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK208" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL208" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM208" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A209" s="16" t="s">
         <v>5</v>
       </c>
@@ -23948,10 +25205,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK209" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL209" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM209" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A210" s="16" t="s">
         <v>111</v>
       </c>
@@ -24040,10 +25303,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK210" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL210" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM210" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A211" s="16" t="s">
         <v>343</v>
       </c>
@@ -24132,10 +25401,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK211" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL211" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM211" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A212" s="16" t="s">
         <v>341</v>
       </c>
@@ -24224,10 +25499,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK212" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL212" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM212" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A213" s="16" t="s">
         <v>287</v>
       </c>
@@ -24316,10 +25597,16 @@
         <v>0.3363873</v>
       </c>
       <c r="AK213" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL213" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM213" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A214" s="16" t="s">
         <v>527</v>
       </c>
@@ -24408,10 +25695,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK214" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL214" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM214" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A215" s="16" t="s">
         <v>356</v>
       </c>
@@ -24506,10 +25799,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK215" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL215" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM215" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="130" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:39" ht="130" x14ac:dyDescent="0.15">
       <c r="A216" s="16" t="s">
         <v>137</v>
       </c>
@@ -24604,10 +25903,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK216" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL216" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM216" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A217" s="16" t="s">
         <v>626</v>
       </c>
@@ -24696,10 +26001,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK217" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL217" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM217" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A218" s="16" t="s">
         <v>338</v>
       </c>
@@ -24794,10 +26105,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK218" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL218" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM218" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A219" s="16" t="s">
         <v>336</v>
       </c>
@@ -24886,10 +26203,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK219" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL219" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM219" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:37" ht="156" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:39" ht="156" x14ac:dyDescent="0.15">
       <c r="A220" s="16" t="s">
         <v>113</v>
       </c>
@@ -24978,10 +26301,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK220" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL220" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM220" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A221" s="16" t="s">
         <v>287</v>
       </c>
@@ -25070,10 +26399,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK221" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL221" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM221" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A222" s="16" t="s">
         <v>572</v>
       </c>
@@ -25162,10 +26497,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK222" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL222" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM222" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A223" s="16" t="s">
         <v>287</v>
       </c>
@@ -25254,10 +26595,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK223" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL223" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM223" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A224" s="16" t="s">
         <v>28</v>
       </c>
@@ -25350,10 +26697,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK224" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL224" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM224" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A225" s="16" t="s">
         <v>287</v>
       </c>
@@ -25442,10 +26795,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK225" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL225" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM225" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A226" s="16" t="s">
         <v>31</v>
       </c>
@@ -25538,10 +26897,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK226" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL226" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM226" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A227" s="16" t="s">
         <v>350</v>
       </c>
@@ -25630,10 +26995,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK227" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL227" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM227" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="16" t="s">
         <v>63</v>
       </c>
@@ -25722,10 +27093,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK228" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL228" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM228" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A229" s="16" t="s">
         <v>198</v>
       </c>
@@ -25814,10 +27191,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK229" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL229" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM229" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:37" ht="130" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:39" ht="130" x14ac:dyDescent="0.15">
       <c r="A230" s="16" t="s">
         <v>116</v>
       </c>
@@ -25906,10 +27289,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK230" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL230" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM230" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="16" t="s">
         <v>139</v>
       </c>
@@ -25995,10 +27384,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK231" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL231" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM231" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A232" s="16" t="s">
         <v>65</v>
       </c>
@@ -26087,10 +27482,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK232" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL232" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM232" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A233" s="16" t="s">
         <v>118</v>
       </c>
@@ -26179,10 +27580,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK233" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL233" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM233" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A234" s="16" t="s">
         <v>834</v>
       </c>
@@ -26271,10 +27678,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK234" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL234" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM234" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="16" t="s">
         <v>120</v>
       </c>
@@ -26363,10 +27776,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK235" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL235" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM235" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A236" s="16" t="s">
         <v>140</v>
       </c>
@@ -26455,10 +27874,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK236" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL236" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM236" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A237" s="16" t="s">
         <v>142</v>
       </c>
@@ -26553,10 +27978,16 @@
         <v>0.3204726</v>
       </c>
       <c r="AK237" s="16">
-        <v>68.099999999999994</v>
+        <v>27.322880000000001</v>
+      </c>
+      <c r="AL237" s="16">
+        <v>42.197110000000002</v>
+      </c>
+      <c r="AM237" s="16">
+        <v>68.100099999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A238" s="16" t="s">
         <v>287</v>
       </c>
@@ -26645,10 +28076,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK238" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL238" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM238" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="239" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A239" s="16" t="s">
         <v>198</v>
       </c>
@@ -26737,10 +28174,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK239" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL239" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM239" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="240" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="16" t="s">
         <v>144</v>
       </c>
@@ -26826,10 +28269,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK240" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL240" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM240" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A241" s="16" t="s">
         <v>76</v>
       </c>
@@ -26924,10 +28373,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK241" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL241" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM241" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="242" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A242" s="16" t="s">
         <v>147</v>
       </c>
@@ -27020,10 +28475,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK242" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL242" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM242" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="243" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A243" s="16" t="s">
         <v>149</v>
       </c>
@@ -27116,10 +28577,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK243" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL243" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM243" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="244" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A244" s="16" t="s">
         <v>123</v>
       </c>
@@ -27208,10 +28675,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK244" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL244" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM244" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="245" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A245" s="16" t="s">
         <v>519</v>
       </c>
@@ -27300,10 +28773,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK245" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL245" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM245" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="246" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A246" s="16" t="s">
         <v>63</v>
       </c>
@@ -27392,10 +28871,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK246" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL246" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM246" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="247" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A247" s="16" t="s">
         <v>17</v>
       </c>
@@ -27484,10 +28969,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK247" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL247" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM247" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="248" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A248" s="16" t="s">
         <v>17</v>
       </c>
@@ -27576,10 +29067,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK248" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL248" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM248" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="249" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A249" s="16" t="s">
         <v>126</v>
       </c>
@@ -27674,10 +29171,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK249" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL249" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM249" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="250" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A250" s="16" t="s">
         <v>94</v>
       </c>
@@ -27770,10 +29273,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK250" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL250" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM250" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="251" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A251" s="16" t="s">
         <v>76</v>
       </c>
@@ -27868,10 +29377,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK251" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL251" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM251" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="252" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A252" s="16" t="s">
         <v>93</v>
       </c>
@@ -27966,10 +29481,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK252" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL252" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM252" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="253" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A253" s="16" t="s">
         <v>164</v>
       </c>
@@ -28058,10 +29579,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK253" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL253" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM253" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="254" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A254" s="16" t="s">
         <v>58</v>
       </c>
@@ -28153,10 +29680,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK254" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL254" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM254" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="255" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="16" t="s">
         <v>348</v>
       </c>
@@ -28242,10 +29775,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK255" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL255" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM255" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="256" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A256" s="16" t="s">
         <v>856</v>
       </c>
@@ -28334,10 +29873,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK256" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL256" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM256" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:37" ht="156" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:39" ht="156" x14ac:dyDescent="0.15">
       <c r="A257" s="16" t="s">
         <v>152</v>
       </c>
@@ -28430,10 +29975,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK257" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL257" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM257" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="258" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A258" s="16" t="s">
         <v>858</v>
       </c>
@@ -28526,10 +30077,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK258" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL258" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM258" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="259" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A259" s="16" t="s">
         <v>149</v>
       </c>
@@ -28622,10 +30179,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK259" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL259" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM259" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="260" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A260" s="16" t="s">
         <v>347</v>
       </c>
@@ -28714,10 +30277,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK260" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL260" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM260" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="261" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A261" s="16" t="s">
         <v>69</v>
       </c>
@@ -28806,10 +30375,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK261" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL261" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM261" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="262" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A262" s="16" t="s">
         <v>156</v>
       </c>
@@ -28898,10 +30473,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK262" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL262" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM262" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="263" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A263" s="16" t="s">
         <v>158</v>
       </c>
@@ -28990,10 +30571,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK263" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL263" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM263" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="264" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A264" s="16" t="s">
         <v>50</v>
       </c>
@@ -29082,10 +30669,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK264" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL264" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM264" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="265" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A265" s="16" t="s">
         <v>35</v>
       </c>
@@ -29177,10 +30770,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK265" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL265" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM265" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A266" s="16" t="s">
         <v>160</v>
       </c>
@@ -29269,10 +30868,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK266" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL266" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM266" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="267" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A267" s="16" t="s">
         <v>118</v>
       </c>
@@ -29361,10 +30966,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK267" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL267" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM267" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="268" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A268" s="16" t="s">
         <v>505</v>
       </c>
@@ -29456,10 +31067,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK268" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL268" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM268" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="269" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A269" s="16" t="s">
         <v>162</v>
       </c>
@@ -29548,10 +31165,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK269" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL269" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM269" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="270" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A270" s="16" t="s">
         <v>164</v>
       </c>
@@ -29640,10 +31263,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK270" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL270" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM270" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="271" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A271" s="16" t="s">
         <v>132</v>
       </c>
@@ -29732,10 +31361,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK271" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL271" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM271" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="272" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A272" s="16" t="s">
         <v>37</v>
       </c>
@@ -29824,10 +31459,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK272" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL272" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM272" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="273" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A273" s="16" t="s">
         <v>134</v>
       </c>
@@ -29916,10 +31557,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK273" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL273" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM273" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="274" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A274" s="16" t="s">
         <v>123</v>
       </c>
@@ -30008,10 +31655,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK274" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL274" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM274" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="275" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A275" s="16" t="s">
         <v>63</v>
       </c>
@@ -30100,10 +31753,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK275" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL275" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM275" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="276" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A276" s="16" t="s">
         <v>137</v>
       </c>
@@ -30201,10 +31860,16 @@
         <v>0.32372669999999998</v>
       </c>
       <c r="AK276" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL276" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM276" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="277" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A277" s="16" t="s">
         <v>93</v>
       </c>
@@ -30293,10 +31958,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK277" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL277" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM277" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="278" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A278" s="16" t="s">
         <v>149</v>
       </c>
@@ -30388,10 +32059,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK278" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL278" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM278" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="279" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A279" s="16" t="s">
         <v>76</v>
       </c>
@@ -30480,10 +32157,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK279" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL279" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM279" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="280" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A280" s="16" t="s">
         <v>39</v>
       </c>
@@ -30572,10 +32255,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK280" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL280" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM280" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="281" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A281" s="16" t="s">
         <v>586</v>
       </c>
@@ -30664,10 +32353,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK281" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL281" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM281" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="282" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A282" s="16" t="s">
         <v>83</v>
       </c>
@@ -30756,10 +32451,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK282" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL282" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM282" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="283" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A283" s="16" t="s">
         <v>505</v>
       </c>
@@ -30848,10 +32549,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK283" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL283" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM283" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="284" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A284" s="16" t="s">
         <v>65</v>
       </c>
@@ -30940,10 +32647,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK284" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL284" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM284" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="285" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A285" s="16" t="s">
         <v>40</v>
       </c>
@@ -31035,10 +32748,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK285" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL285" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM285" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="286" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A286" s="16" t="s">
         <v>508</v>
       </c>
@@ -31136,10 +32855,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK286" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL286" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM286" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="287" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A287" s="16" t="s">
         <v>101</v>
       </c>
@@ -31228,10 +32953,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK287" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL287" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM287" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="288" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A288" s="16" t="s">
         <v>99</v>
       </c>
@@ -31320,10 +33051,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK288" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL288" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM288" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="289" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A289" s="16" t="s">
         <v>126</v>
       </c>
@@ -31412,10 +33149,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK289" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL289" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM289" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="290" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A290" s="16" t="s">
         <v>888</v>
       </c>
@@ -31513,10 +33256,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK290" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL290" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM290" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="291" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A291" s="16" t="s">
         <v>97</v>
       </c>
@@ -31611,10 +33360,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK291" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL291" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM291" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="292" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A292" s="16" t="s">
         <v>76</v>
       </c>
@@ -31709,10 +33464,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK292" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL292" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM292" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="293" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A293" s="16" t="s">
         <v>93</v>
       </c>
@@ -31807,10 +33568,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK293" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL293" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM293" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="294" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="16" t="s">
         <v>172</v>
       </c>
@@ -31899,10 +33666,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK294" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL294" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM294" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="295" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A295" s="16" t="s">
         <v>96</v>
       </c>
@@ -31991,10 +33764,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK295" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL295" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM295" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="296" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A296" s="16" t="s">
         <v>175</v>
       </c>
@@ -32083,10 +33862,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK296" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL296" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM296" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="297" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A297" s="16" t="s">
         <v>94</v>
       </c>
@@ -32175,10 +33960,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK297" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL297" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM297" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="298" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A298" s="16" t="s">
         <v>149</v>
       </c>
@@ -32267,10 +34058,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK298" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL298" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM298" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="299" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A299" s="16" t="s">
         <v>76</v>
       </c>
@@ -32365,10 +34162,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK299" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL299" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM299" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="300" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A300" s="16" t="s">
         <v>93</v>
       </c>
@@ -32457,10 +34260,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK300" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL300" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM300" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="301" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A301" s="16" t="s">
         <v>149</v>
       </c>
@@ -32552,10 +34361,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK301" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL301" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM301" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="302" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A302" s="16" t="s">
         <v>76</v>
       </c>
@@ -32644,10 +34459,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK302" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL302" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM302" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="303" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A303" s="16" t="s">
         <v>90</v>
       </c>
@@ -32736,10 +34557,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK303" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL303" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM303" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="304" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A304" s="16" t="s">
         <v>65</v>
       </c>
@@ -32825,10 +34652,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK304" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL304" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM304" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="305" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A305" s="16" t="s">
         <v>89</v>
       </c>
@@ -32917,10 +34750,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK305" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL305" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM305" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="306" spans="1:37" ht="195" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:39" ht="195" x14ac:dyDescent="0.15">
       <c r="A306" s="16" t="s">
         <v>180</v>
       </c>
@@ -33009,10 +34848,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK306" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL306" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM306" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="307" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="16" t="s">
         <v>347</v>
       </c>
@@ -33101,10 +34946,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK307" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL307" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM307" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="308" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="16" t="s">
         <v>149</v>
       </c>
@@ -33196,10 +35047,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK308" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL308" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM308" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="309" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A309" s="16" t="s">
         <v>149</v>
       </c>
@@ -33292,10 +35149,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK309" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL309" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM309" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A310" s="16" t="s">
         <v>347</v>
       </c>
@@ -33384,10 +35247,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK310" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL310" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM310" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="311" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A311" s="16" t="s">
         <v>76</v>
       </c>
@@ -33476,10 +35345,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK311" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL311" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM311" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="312" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A312" s="16" t="s">
         <v>84</v>
       </c>
@@ -33574,10 +35449,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK312" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL312" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM312" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="313" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A313" s="16" t="s">
         <v>63</v>
       </c>
@@ -33666,10 +35547,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK313" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL313" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM313" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="314" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A314" s="16" t="s">
         <v>83</v>
       </c>
@@ -33758,10 +35645,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK314" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL314" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM314" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="315" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A315" s="16" t="s">
         <v>224</v>
       </c>
@@ -33784,7 +35677,7 @@
         <v>916</v>
       </c>
       <c r="J315" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K315" s="16">
         <v>10</v>
@@ -33850,10 +35743,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK315" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL315" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM315" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="316" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A316" s="16" t="s">
         <v>65</v>
       </c>
@@ -33948,10 +35847,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK316" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL316" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM316" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="317" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A317" s="16" t="s">
         <v>76</v>
       </c>
@@ -34040,10 +35945,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK317" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL317" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM317" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="318" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A318" s="16" t="s">
         <v>505</v>
       </c>
@@ -34138,10 +36049,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK318" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL318" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM318" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="319" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A319" s="16" t="s">
         <v>347</v>
       </c>
@@ -34230,10 +36147,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK319" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL319" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM319" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="320" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A320" s="16" t="s">
         <v>67</v>
       </c>
@@ -34322,10 +36245,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK320" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL320" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM320" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="321" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="16" t="s">
         <v>222</v>
       </c>
@@ -34348,7 +36277,7 @@
         <v>223</v>
       </c>
       <c r="J321" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K321" s="16">
         <v>4</v>
@@ -34414,10 +36343,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK321" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL321" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM321" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="322" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A322" s="16" t="s">
         <v>80</v>
       </c>
@@ -34506,10 +36441,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK322" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL322" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM322" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="323" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A323" s="16" t="s">
         <v>921</v>
       </c>
@@ -34598,10 +36539,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK323" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL323" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM323" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="324" spans="1:37" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:39" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A324" s="20" t="s">
         <v>224</v>
       </c>
@@ -34693,10 +36640,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK324" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL324" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM324" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="325" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A325" s="16" t="s">
         <v>65</v>
       </c>
@@ -34794,10 +36747,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK325" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL325" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM325" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="326" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A326" s="16" t="s">
         <v>65</v>
       </c>
@@ -34895,10 +36854,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK326" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL326" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM326" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="327" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A327" s="16" t="s">
         <v>65</v>
       </c>
@@ -34996,10 +36961,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK327" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL327" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM327" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="328" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A328" s="16" t="s">
         <v>58</v>
       </c>
@@ -35097,10 +37068,16 @@
         <v>0.29196430000000001</v>
       </c>
       <c r="AK328" s="16">
-        <v>84.4</v>
+        <v>37.48263</v>
+      </c>
+      <c r="AL328" s="16">
+        <v>47.207250000000002</v>
+      </c>
+      <c r="AM328" s="16">
+        <v>84.409899999999993</v>
       </c>
     </row>
-    <row r="329" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A329" s="16" t="s">
         <v>348</v>
       </c>
@@ -35195,10 +37172,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK329" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL329" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM329" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="330" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A330" s="16" t="s">
         <v>65</v>
       </c>
@@ -35293,10 +37276,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK330" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL330" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM330" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="331" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A331" s="16" t="s">
         <v>65</v>
       </c>
@@ -35394,10 +37383,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK331" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL331" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM331" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="332" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A332" s="16" t="s">
         <v>930</v>
       </c>
@@ -35492,10 +37487,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK332" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL332" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM332" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A333" s="16" t="s">
         <v>63</v>
       </c>
@@ -35584,10 +37585,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK333" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL333" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM333" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="334" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A334" s="16" t="s">
         <v>188</v>
       </c>
@@ -35679,10 +37686,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK334" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL334" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM334" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="335" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A335" s="16" t="s">
         <v>78</v>
       </c>
@@ -35771,10 +37784,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK335" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL335" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM335" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="336" spans="1:37" ht="26" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A336" s="16" t="s">
         <v>65</v>
       </c>
@@ -35869,10 +37888,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK336" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL336" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM336" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="337" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A337" s="16" t="s">
         <v>76</v>
       </c>
@@ -35961,10 +37986,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK337" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL337" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM337" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="338" spans="1:37" ht="156" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:39" ht="156" x14ac:dyDescent="0.15">
       <c r="A338" s="16" t="s">
         <v>190</v>
       </c>
@@ -36056,10 +38087,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK338" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL338" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM338" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="339" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A339" s="16" t="s">
         <v>192</v>
       </c>
@@ -36154,10 +38191,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK339" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL339" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM339" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A340" s="16" t="s">
         <v>60</v>
       </c>
@@ -36249,10 +38292,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK340" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL340" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM340" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="341" spans="1:37" s="22" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:39" s="22" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A341" s="20" t="s">
         <v>691</v>
       </c>
@@ -36348,10 +38397,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK341" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL341" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM341" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="342" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A342" s="16" t="s">
         <v>194</v>
       </c>
@@ -36446,10 +38501,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK342" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL342" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM342" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="343" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A343" s="16" t="s">
         <v>348</v>
       </c>
@@ -36544,10 +38605,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK343" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL343" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM343" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="344" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A344" s="16" t="s">
         <v>58</v>
       </c>
@@ -36639,10 +38706,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK344" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL344" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM344" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="345" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A345" s="16" t="s">
         <v>218</v>
       </c>
@@ -36731,10 +38804,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK345" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL345" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM345" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="346" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="20" t="s">
         <v>5</v>
       </c>
@@ -36823,10 +38902,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK346" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL346" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM346" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="347" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A347" s="16" t="s">
         <v>345</v>
       </c>
@@ -36915,10 +39000,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK347" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL347" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM347" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="348" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A348" s="16" t="s">
         <v>65</v>
       </c>
@@ -37013,10 +39104,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK348" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL348" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM348" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="349" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A349" s="16" t="s">
         <v>50</v>
       </c>
@@ -37111,10 +39208,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK349" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL349" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM349" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="350" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A350" s="16" t="s">
         <v>287</v>
       </c>
@@ -37203,10 +39306,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK350" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL350" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM350" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="351" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A351" s="16" t="s">
         <v>54</v>
       </c>
@@ -37301,10 +39410,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK351" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL351" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM351" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="352" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A352" s="16" t="s">
         <v>63</v>
       </c>
@@ -37393,10 +39508,16 @@
         <v>0.2731344</v>
       </c>
       <c r="AK352" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL352" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM352" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="353" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A353" s="16" t="s">
         <v>198</v>
       </c>
@@ -37491,10 +39612,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK353" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL353" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM353" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="354" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A354" s="16" t="s">
         <v>201</v>
       </c>
@@ -37586,10 +39713,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK354" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL354" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM354" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="355" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A355" s="16" t="s">
         <v>52</v>
       </c>
@@ -37687,10 +39820,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK355" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL355" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM355" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="356" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A356" s="16" t="s">
         <v>575</v>
       </c>
@@ -37782,10 +39921,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK356" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL356" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM356" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="357" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A357" s="16" t="s">
         <v>348</v>
       </c>
@@ -37874,10 +40019,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK357" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL357" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM357" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="358" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A358" s="16" t="s">
         <v>74</v>
       </c>
@@ -37966,10 +40117,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK358" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL358" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM358" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="359" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A359" s="16" t="s">
         <v>202</v>
       </c>
@@ -38058,10 +40215,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK359" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL359" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM359" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="360" spans="1:37" ht="143" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:39" ht="143" x14ac:dyDescent="0.15">
       <c r="A360" s="16" t="s">
         <v>204</v>
       </c>
@@ -38150,10 +40313,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK360" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL360" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM360" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="361" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A361" s="16" t="s">
         <v>72</v>
       </c>
@@ -38242,10 +40411,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK361" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL361" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM361" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="362" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A362" s="16" t="s">
         <v>69</v>
       </c>
@@ -38334,10 +40509,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK362" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL362" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM362" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="363" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A363" s="16" t="s">
         <v>74</v>
       </c>
@@ -38426,10 +40607,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK363" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL363" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM363" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="364" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A364" s="16" t="s">
         <v>209</v>
       </c>
@@ -38524,10 +40711,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK364" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL364" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM364" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="365" spans="1:37" ht="91" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A365" s="16" t="s">
         <v>287</v>
       </c>
@@ -38616,10 +40809,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK365" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL365" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM365" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="366" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A366" s="16" t="s">
         <v>50</v>
       </c>
@@ -38717,10 +40916,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK366" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL366" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM366" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="367" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A367" s="16" t="s">
         <v>69</v>
       </c>
@@ -38809,10 +41014,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK367" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL367" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM367" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="368" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A368" s="16" t="s">
         <v>48</v>
       </c>
@@ -38901,10 +41112,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK368" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL368" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM368" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="369" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A369" s="16" t="s">
         <v>512</v>
       </c>
@@ -38993,10 +41210,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK369" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL369" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM369" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="370" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A370" s="16" t="s">
         <v>50</v>
       </c>
@@ -39091,10 +41314,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK370" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL370" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM370" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="371" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A371" s="16" t="s">
         <v>50</v>
       </c>
@@ -39183,10 +41412,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK371" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL371" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM371" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="372" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A372" s="16" t="s">
         <v>555</v>
       </c>
@@ -39284,10 +41519,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK372" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL372" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM372" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="373" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A373" s="16" t="s">
         <v>46</v>
       </c>
@@ -39376,10 +41617,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK373" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL373" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM373" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="374" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A374" s="16" t="s">
         <v>44</v>
       </c>
@@ -39468,10 +41715,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK374" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL374" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM374" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="375" spans="1:37" ht="104" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A375" s="20" t="s">
         <v>42</v>
       </c>
@@ -39560,10 +41813,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK375" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL375" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM375" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="376" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A376" s="16" t="s">
         <v>654</v>
       </c>
@@ -39652,10 +41911,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK376" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL376" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM376" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="377" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A377" s="16" t="s">
         <v>657</v>
       </c>
@@ -39744,10 +42009,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK377" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL377" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM377" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="378" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A378" s="16" t="s">
         <v>660</v>
       </c>
@@ -39836,10 +42107,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK378" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL378" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM378" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="379" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A379" s="16" t="s">
         <v>663</v>
       </c>
@@ -39934,10 +42211,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK379" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL379" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM379" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="380" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A380" s="16" t="s">
         <v>204</v>
       </c>
@@ -40032,10 +42315,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK380" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL380" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM380" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="381" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A381" s="16" t="s">
         <v>670</v>
       </c>
@@ -40130,10 +42419,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK381" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL381" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM381" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="382" spans="1:37" ht="78" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:39" ht="78" x14ac:dyDescent="0.15">
       <c r="A382" s="16" t="s">
         <v>670</v>
       </c>
@@ -40222,12 +42517,18 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK382" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL382" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM382" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="383" spans="1:37" ht="65" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A383" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B383" s="16">
         <v>1</v>
@@ -40245,10 +42546,10 @@
         <v>16</v>
       </c>
       <c r="I383" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="J383" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K383" s="16">
         <v>9</v>
@@ -40314,10 +42615,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK383" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL383" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM383" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="384" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A384" s="16" t="s">
         <v>679</v>
       </c>
@@ -40406,10 +42713,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK384" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL384" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM384" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="385" spans="1:37" ht="117" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:39" ht="117" x14ac:dyDescent="0.15">
       <c r="A385" s="16" t="s">
         <v>674</v>
       </c>
@@ -40504,10 +42817,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK385" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL385" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM385" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="386" spans="1:37" ht="39" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A386" s="16" t="s">
         <v>50</v>
       </c>
@@ -40605,10 +42924,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK386" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL386" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM386" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="387" spans="1:37" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:39" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A387" s="20" t="s">
         <v>686</v>
       </c>
@@ -40705,12 +43030,18 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK387" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL387" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM387" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="388" spans="1:37" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:39" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A388" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B388" s="20">
         <v>1</v>
@@ -40728,10 +43059,10 @@
         <v>16</v>
       </c>
       <c r="I388" s="28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J388" s="28" t="s">
         <v>1085</v>
-      </c>
-      <c r="J388" s="28" t="s">
-        <v>1086</v>
       </c>
       <c r="K388" s="20">
         <v>9</v>
@@ -40800,10 +43131,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK388" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL388" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM388" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="389" spans="1:37" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:39" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A389" s="20" t="s">
         <v>50</v>
       </c>
@@ -40902,12 +43239,18 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK389" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL389" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM389" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="390" spans="1:37" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:39" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="A390" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B390" s="20">
         <v>1</v>
@@ -40925,10 +43268,10 @@
         <v>16</v>
       </c>
       <c r="I390" s="28" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J390" s="28" t="s">
         <v>1087</v>
-      </c>
-      <c r="J390" s="28" t="s">
-        <v>1088</v>
       </c>
       <c r="K390" s="20">
         <v>9</v>
@@ -40997,12 +43340,18 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK390" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL390" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM390" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="391" spans="1:37" ht="52" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A391" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B391" s="16">
         <v>1</v>
@@ -41020,10 +43369,10 @@
         <v>16</v>
       </c>
       <c r="I391" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J391" s="9" t="s">
         <v>1052</v>
-      </c>
-      <c r="J391" s="9" t="s">
-        <v>1053</v>
       </c>
       <c r="K391" s="16">
         <v>10</v>
@@ -41035,7 +43384,7 @@
         <v>1</v>
       </c>
       <c r="Q391" s="16" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="R391" s="20">
         <v>73</v>
@@ -41095,10 +43444,16 @@
         <v>0.26683950000000001</v>
       </c>
       <c r="AK391" s="16">
-        <v>79.552000000000007</v>
+        <v>36.271349999999998</v>
+      </c>
+      <c r="AL391" s="16">
+        <v>31.48359</v>
+      </c>
+      <c r="AM391" s="16">
+        <v>79.552499999999995</v>
       </c>
     </row>
-    <row r="392" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:39" x14ac:dyDescent="0.15">
       <c r="J392" s="9"/>
     </row>
   </sheetData>

--- a/data/MilEditorials.xlsx
+++ b/data/MilEditorials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Semester 2/PS904 - American Politics/ResearchPaper/904 Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE02E44A-5D77-D14B-A539-07A016DE084A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A67A15-F9A2-A448-8CB8-45110020C98B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
   </bookViews>
@@ -3922,9 +3922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DC456-8F02-9C4D-BCC7-A5EE43EC04A5}">
   <dimension ref="A1:AM392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM329" sqref="AM329:AM391"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D388" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
